--- a/medicine/Psychotrope/Gueuzerie_Hanssens/Gueuzerie_Hanssens.xlsx
+++ b/medicine/Psychotrope/Gueuzerie_Hanssens/Gueuzerie_Hanssens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Gueuzerie Hanssens (en néerlandais : Geuzestekerij Hanssens Artisanaal) est une entreprise de Belgique ne brassant pas mais travaillant en qualité d'assembleur de lambic.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1871 par Bartholomeus Hanssens, la brasserie brasse ses lambics jusqu'à la Première Guerre mondiale, où le matériel de brassage est confisqué. Loin d'abandonner son activité, il devient assembleur ou coupeur (blender en anglais à l'instar des assembleurs de whiskey).
 Aujourd'hui Sidy (arrière-petite-fille de Bartholomeus (?)) perpétue la tradition de l'assemblage et offre des produits issu d'une production telle qu'on la pratiquait il y a un siècle.
@@ -544,7 +558,9 @@
           <t>Assembleur, pas brasseur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La production de lambic est confinée à une dizaine de brasseurs, uniquement en région bruxelloise. Hanssens travaille donc sur deux aspects à partir des lambics acheté à ses collègues : d'une part sur la maturation (vieillissement) des lambics, d'autre part sur les assemblages de lambic. Ces deux aspects sont potentiellement complémentaires.
 Reste une dernière activité, qui est l'ajout de fruits, qui peut se réaliser soit à partir d'un lambic pur et de fruits, soit à partir d'une gueuze et de fruits.
@@ -577,7 +593,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Oude gueuze : gueuze
 Oude kriek : kriek
